--- a/shipin/功能模块清单 企业端小程序.xlsx
+++ b/shipin/功能模块清单 企业端小程序.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/www/shipin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/www/blog/shipin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19360" yWindow="-1160" windowWidth="16740" windowHeight="17540"/>
+    <workbookView xWindow="-19360" yWindow="460" windowWidth="18320" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="企业端小程序" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>登录</t>
   </si>
@@ -126,22 +126,6 @@
   </si>
   <si>
     <t>增加，删除，修改，详情查询，上架，下架，公司详情功能去掉</t>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -194,7 +178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,25 +268,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +609,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -652,26 +639,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <v>43585</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -681,40 +666,36 @@
       <c r="E3" s="3">
         <v>43589</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>43585</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>43585</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -724,13 +705,13 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>43585</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -744,8 +725,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -757,8 +738,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -766,13 +747,11 @@
       <c r="E9" s="3">
         <v>43595</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -780,13 +759,11 @@
       <c r="E10" s="3">
         <v>43595</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -795,38 +772,37 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <v>43585</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>43585</v>
       </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="11">
+      <c r="E13" s="6">
         <v>43585</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
@@ -836,17 +812,18 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="6">
         <v>43585</v>
       </c>
+      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 企业端小程序.xlsx
+++ b/shipin/功能模块清单 企业端小程序.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19360" yWindow="460" windowWidth="18320" windowHeight="17540"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="18320" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="企业端小程序" sheetId="5" r:id="rId1"/>
@@ -274,6 +274,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,12 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +609,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -639,10 +639,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -652,11 +652,11 @@
       <c r="E2" s="6">
         <v>43585</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -669,9 +669,9 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -680,22 +680,22 @@
       <c r="E4" s="6">
         <v>43585</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="6">
         <v>43585</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,10 +708,11 @@
       <c r="E6" s="6">
         <v>43585</v>
       </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -725,8 +726,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -738,8 +739,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,11 +748,11 @@
       <c r="E9" s="3">
         <v>43595</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -759,11 +760,11 @@
       <c r="E10" s="3">
         <v>43595</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -777,8 +778,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,11 +787,11 @@
       <c r="E12" s="6">
         <v>43585</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,11 +799,11 @@
       <c r="E13" s="6">
         <v>43585</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +813,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +824,7 @@
       <c r="E15" s="6">
         <v>43585</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 企业端小程序.xlsx
+++ b/shipin/功能模块清单 企业端小程序.xlsx
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,6 +168,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -271,9 +277,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +615,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -639,10 +645,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -652,11 +658,11 @@
       <c r="E2" s="6">
         <v>43585</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -666,12 +672,12 @@
       <c r="E3" s="3">
         <v>43589</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -680,22 +686,22 @@
       <c r="E4" s="6">
         <v>43585</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="6">
         <v>43585</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,11 +714,11 @@
       <c r="E6" s="6">
         <v>43585</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -726,8 +732,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -737,10 +743,11 @@
       <c r="E8" s="3">
         <v>43589</v>
       </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,11 +755,11 @@
       <c r="E9" s="3">
         <v>43595</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -760,11 +767,11 @@
       <c r="E10" s="3">
         <v>43595</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -776,10 +783,11 @@
       <c r="E11" s="6">
         <v>43585</v>
       </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,11 +795,11 @@
       <c r="E12" s="6">
         <v>43585</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,11 +807,11 @@
       <c r="E13" s="6">
         <v>43585</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,8 +821,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="E15" s="6">
         <v>43585</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 企业端小程序.xlsx
+++ b/shipin/功能模块清单 企业端小程序.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="18320" windowHeight="17540"/>
+    <workbookView xWindow="-36740" yWindow="460" windowWidth="18320" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="企业端小程序" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>登录</t>
   </si>
@@ -126,6 +126,29 @@
   </si>
   <si>
     <t>增加，删除，修改，详情查询，上架，下架，公司详情功能去掉</t>
+  </si>
+  <si>
+    <t>需提供接口和做法</t>
+    <rPh sb="0" eb="1">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ti gong jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等接口</t>
+    <rPh sb="0" eb="1">
+      <t>deng jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -283,6 +306,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,9 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +638,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -645,10 +668,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -661,8 +684,8 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -672,12 +695,12 @@
       <c r="E3" s="3">
         <v>43589</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -689,9 +712,9 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
@@ -701,7 +724,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -717,8 +740,8 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -730,10 +753,13 @@
       <c r="E7" s="3">
         <v>43589</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -746,8 +772,8 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -758,8 +784,8 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -770,8 +796,8 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -786,8 +812,8 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +824,8 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +836,8 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,10 +845,13 @@
       <c r="E14" s="3">
         <v>43589</v>
       </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>

--- a/shipin/功能模块清单 企业端小程序.xlsx
+++ b/shipin/功能模块清单 企业端小程序.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>登录</t>
   </si>
@@ -126,29 +126,6 @@
   </si>
   <si>
     <t>增加，删除，修改，详情查询，上架，下架，公司详情功能去掉</t>
-  </si>
-  <si>
-    <t>需提供接口和做法</t>
-    <rPh sb="0" eb="1">
-      <t>xu yao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ti gong jie kou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>he</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zuo fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等接口</t>
-    <rPh sb="0" eb="1">
-      <t>deng jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,7 +615,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -753,9 +730,7 @@
       <c r="E7" s="3">
         <v>43589</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
@@ -845,9 +820,7 @@
       <c r="E14" s="3">
         <v>43589</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
